--- a/data/Fall2024/Network Motif Comparison - 3 gene, 4 node networks/Analysis/Original-Runs_b-constant_summary.xlsx
+++ b/data/Fall2024/Network Motif Comparison - 3 gene, 4 node networks/Analysis/Original-Runs_b-constant_summary.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdahlqui\Documents\Travel-Conferences\BOSC_ISMB_2025\21 original runs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF80A49-6648-4D78-B19A-E15DF685C0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="845" xr2:uid="{61DF7949-D53D-4105-9735-EE06691314FF}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="845"/>
   </bookViews>
   <sheets>
     <sheet name="b Constant" sheetId="1" r:id="rId1"/>
@@ -35,29 +29,14 @@
     <sheet name="19" sheetId="6" r:id="rId20"/>
     <sheet name="20" sheetId="5" r:id="rId21"/>
     <sheet name="21" sheetId="4" r:id="rId22"/>
+    <sheet name="22" sheetId="26" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="8">
   <si>
     <t>Trial</t>
   </si>
@@ -86,8 +65,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,24 +127,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{70519227-5B63-4686-ADE9-D4CF5CB72DF2}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{6D324F20-C91C-4E45-A4F0-8B5D47920066}"/>
-    <cellStyle name="Normal 4" xfId="1" xr:uid="{530E491E-9E52-4105-A481-D94D8643FA3F}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 3 2" xfId="4"/>
+    <cellStyle name="Normal 3 3" xfId="5"/>
+    <cellStyle name="Normal 3 4" xfId="6"/>
+    <cellStyle name="Normal 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -173,15 +160,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -220,6 +204,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -228,26 +213,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -282,10 +247,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'b Constant'!$A$2:$A$22</c:f>
+              <c:f>'b Constant'!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -349,15 +314,18 @@
                 <c:pt idx="20">
                   <c:v>13</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'b Constant'!$B$2:$B$22</c:f>
+              <c:f>'b Constant'!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>3.7517894224305708E-9</c:v>
                 </c:pt>
@@ -421,10 +389,13 @@
                 <c:pt idx="20">
                   <c:v>33.309229455397286</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>172.89238739626737</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3AE6-4C22-9488-42930035D488}"/>
             </c:ext>
@@ -440,11 +411,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1279891743"/>
-        <c:axId val="1279897503"/>
+        <c:axId val="67305984"/>
+        <c:axId val="111731840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1279891743"/>
+        <c:axId val="67305984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -487,7 +458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1279897503"/>
+        <c:crossAx val="111731840"/>
         <c:crossesAt val="1.0000000000000007E-13"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -495,7 +466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1279897503"/>
+        <c:axId val="111731840"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -549,7 +520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1279891743"/>
+        <c:crossAx val="67305984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -563,14 +534,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1168,7 +1139,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F86DA50-4012-DB17-F88E-613B20E279DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F86DA50-4012-DB17-F88E-613B20E279DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1498,27 +1469,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7478D67-BA7D-48FA-92AF-8000621A116E}">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>14</v>
       </c>
@@ -1547,7 +1518,7 @@
         <v>22.420360101114447</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -1562,7 +1533,7 @@
         <v>2.9180553881637055</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>17</v>
       </c>
@@ -1577,7 +1548,7 @@
         <v>2.4502578370133929E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -1592,7 +1563,7 @@
         <v>7.7363728209545508</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>16</v>
       </c>
@@ -1607,7 +1578,7 @@
         <v>0.23689189903145005</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1622,7 +1593,7 @@
         <v>0.75997610472545973</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>18</v>
       </c>
@@ -1637,7 +1608,7 @@
         <v>32.959758052089796</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>21</v>
       </c>
@@ -1652,7 +1623,7 @@
         <v>1.9649526865915972</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>20</v>
       </c>
@@ -1667,7 +1638,7 @@
         <v>1.3300734061349089E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -1682,7 +1653,7 @@
         <v>1.0243273573452971E-7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -1697,7 +1668,7 @@
         <v>25.025922980248851</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -1712,7 +1683,7 @@
         <v>5.9429321520069891</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -1727,7 +1698,7 @@
         <v>33.309229455397286</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>19</v>
       </c>
@@ -1742,7 +1713,7 @@
         <v>3.7517894224305708E-9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1757,7 +1728,7 @@
         <v>9.1071930599002631</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -1772,7 +1743,7 @@
         <v>1.6717735944856615E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1787,7 +1758,7 @@
         <v>2.6740527757220348E-7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -1802,7 +1773,7 @@
         <v>3.6687489843564814E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>11</v>
       </c>
@@ -1817,7 +1788,7 @@
         <v>3.7478403669788567</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>7</v>
       </c>
@@ -1832,7 +1803,7 @@
         <v>0.19815083139884221</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>13</v>
       </c>
@@ -1847,27 +1818,42 @@
         <v>2.3122862555122112E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <f>'22'!B16</f>
+        <v>172.89238739626737</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>172.89238739626737</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" t="s">
         <v>2</v>
       </c>
-      <c r="E23">
-        <f>AVERAGE(E2:E22)</f>
-        <v>6.9691130493941023</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+      <c r="E24">
+        <f>AVERAGE(E2:E23)</f>
+        <v>14.511080065161069</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
         <v>3</v>
       </c>
-      <c r="E24">
-        <f>SUM(E2:E22)</f>
-        <v>146.35137403727614</v>
+      <c r="E25">
+        <f>SUM(E2:E23)</f>
+        <v>319.24376143354351</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">
-    <sortCondition ref="B2:B25"/>
+  <sortState ref="A2:B23">
+    <sortCondition ref="B2:B23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1875,16 +1861,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83615C64-E794-4FBF-9071-AD2A44D1D0A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1898,7 +1884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1912,7 +1898,7 @@
         <v>0.99983099612146342</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1926,7 +1912,7 @@
         <v>1.9989486814489459</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1940,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1954,7 +1940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1968,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1982,7 +1968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1996,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>0</v>
@@ -2010,7 +1996,7 @@
         <v>2.8562310960406316E-8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>0</v>
@@ -2024,7 +2010,7 @@
         <v>1.1052706957905229E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f>(B10-B4)^2</f>
         <v>0</v>
@@ -2038,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>1.3300734061349089E-6</v>
@@ -2050,16 +2036,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40157B9F-6434-4685-B5EC-1BE86917077B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2073,7 +2059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2087,7 +2073,7 @@
         <v>0.99995085103650638</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2101,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2115,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2129,7 +2115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2143,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2157,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2171,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>0</v>
@@ -2185,7 +2171,7 @@
         <v>2.4156206124969047E-9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>4.5211031594204153E-9</v>
@@ -2199,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f>(B10-B4)^2</f>
         <v>1.751475179238418E-8</v>
@@ -2213,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>1.0243273573452971E-7</v>
@@ -2225,16 +2211,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA995C32-351D-49BE-93C9-576C97468297}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2248,7 +2234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2262,7 +2248,7 @@
         <v>-3.0310512251580692</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2276,7 +2262,7 @@
         <v>-2.533644915607526</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2290,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2304,7 +2290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2318,7 +2304,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2332,7 +2318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2346,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>0.27194712389767528</v>
@@ -2360,7 +2346,7 @@
         <v>4.1251690792160938</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>0</v>
@@ -2374,7 +2360,7 @@
         <v>20.553936220813977</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2388,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>25.025922980248851</v>
@@ -2400,16 +2386,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EF0B3D-B400-4975-8CA7-B989EBF30B53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2423,7 +2409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2437,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2451,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2465,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2479,7 +2465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2493,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2507,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2521,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>0</v>
@@ -2535,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>1.4222847362731608</v>
@@ -2549,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>0.29944723472687346</v>
@@ -2563,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>5.9429321520069891</v>
@@ -2575,16 +2561,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8DD21A-91B9-413D-87A7-237727AE6C19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2598,7 +2584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2612,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2626,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2640,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2654,7 +2640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2668,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2682,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2696,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>18.201781906306064</v>
@@ -2710,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>0</v>
@@ -2724,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>11.331671469531091</v>
@@ -2738,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>33.309229455397286</v>
@@ -2750,16 +2736,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142147BB-8850-42AC-BF7C-800B472E78BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2773,7 +2759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2787,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2801,7 +2787,7 @@
         <v>1.9999625313548413</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2815,7 +2801,7 @@
         <v>1.0000206477535916</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2829,7 +2815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2843,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2857,7 +2843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2871,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>1.4792560990417858E-9</v>
@@ -2885,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>0</v>
@@ -2899,7 +2885,7 @@
         <v>1.4038993700319231E-9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>4.4230422497896791E-10</v>
@@ -2913,7 +2899,7 @@
         <v>4.2632972837789406E-10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>3.7517894224305708E-9</v>
@@ -2925,16 +2911,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E82B8F-29E1-4315-852A-14C5AE3CB1A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2948,7 +2934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2962,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2976,7 +2962,7 @@
         <v>0.79079787688352787</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2990,7 +2976,7 @@
         <v>0.52423915079268835</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3004,7 +2990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3018,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3032,7 +3018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3046,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>0</v>
@@ -3060,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>0</v>
@@ -3074,7 +3060,7 @@
         <v>1.4621697745493836</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3088,7 +3074,7 @@
         <v>0.22634838563846232</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>9.1071930599002631</v>
@@ -3100,16 +3086,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134DEB53-E5AB-4274-AFB9-D4C08DD6EBEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3123,7 +3109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3137,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3151,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3165,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3179,7 +3165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3193,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3207,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3221,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>0</v>
@@ -3235,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>0</v>
@@ -3249,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>1.1091111022074701E-6</v>
@@ -3263,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>1.6717735944856615E-6</v>
@@ -3275,16 +3261,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F142013-565D-4117-8E1E-C10958E38EE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3298,7 +3284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3312,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3326,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3340,7 +3326,7 @@
         <v>0.99997674471921938</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3354,7 +3340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3368,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3382,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3396,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>9.2605369436959617E-8</v>
@@ -3410,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>1.0300630703225853E-7</v>
@@ -3424,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>7.1252793018799856E-8</v>
@@ -3438,7 +3424,7 @@
         <v>5.4080808418551016E-10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>2.6740527757220348E-7</v>
@@ -3450,16 +3436,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01013357-7328-4AD5-90E3-3258776CEF5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3473,7 +3459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3487,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3501,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3515,7 +3501,7 @@
         <v>0.99765042640905977</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3529,7 +3515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3543,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3557,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3571,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>0</v>
@@ -3585,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>0</v>
@@ -3599,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>4.6649301773532758E-5</v>
@@ -3613,13 +3599,13 @@
         <v>5.5204960592437906E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>3.6687489843564814E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="4"/>
     </row>
   </sheetData>
@@ -3628,16 +3614,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B97CF0-99B2-4337-A953-1577F71FE002}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3651,7 +3637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3665,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3679,7 +3665,7 @@
         <v>-1.2899820294298323</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3693,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3707,7 +3693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3721,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3735,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3749,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>0</v>
@@ -3763,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>1.7957791268826379E-2</v>
@@ -3777,7 +3763,7 @@
         <v>5.2440176951115722</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f>(B10-B4)^2</f>
         <v>0.69775227922636396</v>
@@ -3791,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>22.420360101114447</v>
@@ -3803,16 +3789,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76EDBDA-A255-485C-A114-9E4EBC1235F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3826,7 +3812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3840,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3854,7 +3840,7 @@
         <v>0.22591848198775191</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3868,7 +3854,7 @@
         <v>0.71844447257979571</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3882,7 +3868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3896,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3910,7 +3896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3924,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>0.31332811890577078</v>
@@ -3938,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>0</v>
@@ -3952,7 +3938,7 @@
         <v>3.1473652325526422</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3966,13 +3952,13 @@
         <v>7.9273515020869406E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>3.7478403669788567</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="4"/>
     </row>
   </sheetData>
@@ -3981,16 +3967,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300E425B-5620-4431-B514-B1BBE2549DEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4004,7 +3990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4018,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4032,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4046,7 +4032,7 @@
         <v>0.65435598843116682</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4060,7 +4046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4074,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4088,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4102,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>0</v>
@@ -4116,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>2.9213835281214728E-4</v>
@@ -4130,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4144,7 +4130,7 @@
         <v>0.11946978273339569</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>0.19815083139884221</v>
@@ -4156,14 +4142,14 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283F7287-090A-46B7-BA3C-27A59C785353}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4177,7 +4163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4191,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4205,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4219,7 +4205,7 @@
         <v>0.97260050220945926</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4233,7 +4219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4247,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4261,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4275,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>0</v>
@@ -4289,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>1.6895977052780849E-4</v>
@@ -4303,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>2.2037178111829547E-2</v>
@@ -4317,10 +4303,185 @@
         <v>7.5073247917384681E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>2.3122862555122112E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>9.984522235367006</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-8.4097788327881933</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.28967412851280144</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-1.8674342860922193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12">
+        <f>(B8-B2)^2</f>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:D12" si="0">(C8-C2)^2</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="B13">
+        <f>(B9-B3)^2</f>
+        <v>120.65972873927217</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="B13:D14" si="1">(C9-C3)^2</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>41.085264685259574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>2.9252145866784449</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>8.2221793850571974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="B16" s="2">
+        <f>SUM(B12:D14)</f>
+        <v>172.89238739626737</v>
       </c>
     </row>
   </sheetData>
@@ -4329,16 +4490,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0089BC1C-C5EA-49A9-99C3-DFC372691FF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4352,7 +4513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4366,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4380,7 +4541,7 @@
         <v>4.2076759584392477E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4394,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4408,7 +4569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4422,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4436,7 +4597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4450,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>0</v>
@@ -4464,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>1.442827041672853</v>
@@ -4478,7 +4639,7 @@
         <v>0.91761693452833781</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f>(B10-B4)^2</f>
         <v>0</v>
@@ -4492,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>2.9180553881637055</v>
@@ -4504,16 +4665,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313B83BB-D4F2-401B-BF0B-10D69BB3D6FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4527,7 +4688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4541,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4555,7 +4716,7 @@
         <v>1.0000190179567037</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4569,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4583,7 +4744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4597,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4611,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4625,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>2.3046974142037312E-5</v>
@@ -4639,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>0</v>
@@ -4653,7 +4814,7 @@
         <v>3.616826771826968E-10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f>(B10-B4)^2</f>
         <v>4.199025640812871E-6</v>
@@ -4667,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>2.4502578370133929E-4</v>
@@ -4679,16 +4840,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3D4390-3995-460B-ABEF-C18D95517F47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4702,7 +4863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4716,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4730,7 +4891,7 @@
         <v>0.79755907538743442</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4744,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4758,7 +4919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4772,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4786,7 +4947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4800,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>0</v>
@@ -4814,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>0</v>
@@ -4828,7 +4989,7 @@
         <v>4.0982327957990457E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f>(B10-B4)^2</f>
         <v>0</v>
@@ -4842,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>7.7363728209545508</v>
@@ -4854,16 +5015,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB9E05B-3793-41C3-B94B-40F5229BD806}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4877,7 +5038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4891,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4905,7 +5066,7 @@
         <v>0.52927827725657772</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4919,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4933,7 +5094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4947,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4961,7 +5122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4975,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>1.1400706590317521E-2</v>
@@ -4989,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>0</v>
@@ -5003,7 +5164,7 @@
         <v>0.2215789402625353</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f>(B10-B4)^2</f>
         <v>0</v>
@@ -5017,7 +5178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>0.23689189903145005</v>
@@ -5029,16 +5190,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6FF64C-47D1-4ACB-8BCD-8DB8DA890DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5052,7 +5213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5066,7 +5227,7 @@
         <v>-0.9242590923249423</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5080,7 +5241,7 @@
         <v>1.981642862242653</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5094,7 +5255,7 @@
         <v>-1.9997949253392422</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5108,7 +5269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5122,7 +5283,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -5136,7 +5297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -5150,7 +5311,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>0</v>
@@ -5164,7 +5325,7 @@
         <v>5.7366850954416147E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>0</v>
@@ -5178,7 +5339,7 @@
         <v>3.3698450664221638E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f>(B10-B4)^2</f>
         <v>0</v>
@@ -5192,7 +5353,7 @@
         <v>4.2055616484930491E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>0.75997610472545973</v>
@@ -5204,16 +5365,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C51A42-0714-4274-9CCE-FD3E5D511EAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5227,7 +5388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5241,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5255,7 +5416,7 @@
         <v>0.4306967955779521</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5269,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5283,7 +5444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5297,7 +5458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -5311,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -5325,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>17.137350085689366</v>
@@ -5339,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>13.250835237545333</v>
@@ -5353,7 +5514,7 @@
         <v>0.32410613856521198</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f>(B10-B4)^2</f>
         <v>0</v>
@@ -5367,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>32.959758052089796</v>
@@ -5379,16 +5540,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743B6CCE-E37A-4B9D-B598-F019BFB3039F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5402,7 +5563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5416,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5430,7 +5591,7 @@
         <v>0.99956790433956244</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5444,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5458,7 +5619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5472,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -5486,7 +5647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -5500,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12">
         <f>(B8-B2)^2</f>
         <v>0</v>
@@ -5514,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f t="shared" ref="B13:D14" si="1">(B9-B3)^2</f>
         <v>0</v>
@@ -5528,7 +5689,7 @@
         <v>1.8670665976897046E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f>(B10-B4)^2</f>
         <v>3.6178806029088257E-4</v>
@@ -5542,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>1.9649526865915972</v>
@@ -5554,6 +5715,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="070f1269-45c1-4463-99ba-5dc4e57c7dff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DB5B7ED115EF04980BBFAFC51672553" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="43a679fe5cbd3b1dc01cea5b3bb6a16a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="070f1269-45c1-4463-99ba-5dc4e57c7dff" xmlns:ns4="7bf50b4b-6300-445a-aea1-306a2291592c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0963d0390b393dc53bf13ff5a8315f4" ns3:_="" ns4:_="">
     <xsd:import namespace="070f1269-45c1-4463-99ba-5dc4e57c7dff"/>
@@ -5748,24 +5926,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="070f1269-45c1-4463-99ba-5dc4e57c7dff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2EE723E-1688-4D1F-8FE6-FDF46584855C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAD4690-B959-480E-AC59-DDDE87F8E768}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="070f1269-45c1-4463-99ba-5dc4e57c7dff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02EB7017-44D4-47C1-BB45-296DD07AFBB9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5782,22 +5961,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAD4690-B959-480E-AC59-DDDE87F8E768}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="070f1269-45c1-4463-99ba-5dc4e57c7dff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2EE723E-1688-4D1F-8FE6-FDF46584855C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Fall2024/Network Motif Comparison - 3 gene, 4 node networks/Analysis/Original-Runs_b-constant_summary.xlsx
+++ b/data/Fall2024/Network Motif Comparison - 3 gene, 4 node networks/Analysis/Original-Runs_b-constant_summary.xlsx
@@ -411,11 +411,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="67305984"/>
-        <c:axId val="111731840"/>
+        <c:axId val="113211392"/>
+        <c:axId val="125675200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67305984"/>
+        <c:axId val="113211392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -458,7 +458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111731840"/>
+        <c:crossAx val="125675200"/>
         <c:crossesAt val="1.0000000000000007E-13"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -466,7 +466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111731840"/>
+        <c:axId val="125675200"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -520,7 +520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67305984"/>
+        <c:crossAx val="113211392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1139,7 +1139,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F86DA50-4012-DB17-F88E-613B20E279DF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F86DA50-4012-DB17-F88E-613B20E279DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1469,7 +1469,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1479,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1489,7 +1489,7 @@
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +1856,8 @@
     <sortCondition ref="B2:B23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2024,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>1.3300734061349089E-6</v>
@@ -2199,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>1.0243273573452971E-7</v>
@@ -2374,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>25.025922980248851</v>
@@ -2549,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>5.9429321520069891</v>
@@ -2724,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>33.309229455397286</v>
@@ -2899,7 +2900,7 @@
         <v>4.2632972837789406E-10</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>3.7517894224305708E-9</v>
@@ -3074,7 +3075,7 @@
         <v>0.22634838563846232</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>9.1071930599002631</v>
@@ -3249,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>1.6717735944856615E-6</v>
@@ -3424,7 +3425,7 @@
         <v>5.4080808418551016E-10</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>2.6740527757220348E-7</v>
@@ -3599,7 +3600,7 @@
         <v>5.5204960592437906E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>3.6687489843564814E-4</v>
@@ -3777,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>22.420360101114447</v>
@@ -3952,7 +3953,7 @@
         <v>7.9273515020869406E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>3.7478403669788567</v>
@@ -4130,7 +4131,7 @@
         <v>0.11946978273339569</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>0.19815083139884221</v>
@@ -4303,7 +4304,7 @@
         <v>7.5073247917384681E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>2.3122862555122112E-2</v>
@@ -4450,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4">
       <c r="B13">
         <f>(B9-B3)^2</f>
         <v>120.65972873927217</v>
@@ -4464,7 +4465,7 @@
         <v>41.085264685259574</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4">
       <c r="B14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4653,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>2.9180553881637055</v>
@@ -4828,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>2.4502578370133929E-4</v>
@@ -5003,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>7.7363728209545508</v>
@@ -5178,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>0.23689189903145005</v>
@@ -5353,7 +5354,7 @@
         <v>4.2055616484930491E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>0.75997610472545973</v>
@@ -5528,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>32.959758052089796</v>
@@ -5703,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15">
       <c r="B16" s="2">
         <f>SUM(B12:D14)</f>
         <v>1.9649526865915972</v>
@@ -5715,20 +5716,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="070f1269-45c1-4463-99ba-5dc4e57c7dff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="070f1269-45c1-4463-99ba-5dc4e57c7dff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5927,19 +5928,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2EE723E-1688-4D1F-8FE6-FDF46584855C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAD4690-B959-480E-AC59-DDDE87F8E768}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="070f1269-45c1-4463-99ba-5dc4e57c7dff"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAD4690-B959-480E-AC59-DDDE87F8E768}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2EE723E-1688-4D1F-8FE6-FDF46584855C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="070f1269-45c1-4463-99ba-5dc4e57c7dff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
